--- a/Study 2/results/trust_sem_results.xlsx
+++ b/Study 2/results/trust_sem_results.xlsx
@@ -467,22 +467,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.38417184739478</v>
+        <v>-0.384171842752325</v>
       </c>
       <c r="C2" t="n">
-        <v>0.109570992586797</v>
+        <v>0.109570994124206</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.50614554386242</v>
+        <v>-3.50614545229772</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000454646539579606</v>
+        <v>0.000454646695989602</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.598927046615207</v>
+        <v>-0.598927044986019</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.169416648174353</v>
+        <v>-0.169416640518632</v>
       </c>
     </row>
     <row r="3">
@@ -490,22 +490,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0559060299897032</v>
+        <v>-0.0559060289787868</v>
       </c>
       <c r="C3" t="n">
-        <v>0.118492556274811</v>
+        <v>0.11849255731511</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.471810481158364</v>
+        <v>-0.471810468484656</v>
       </c>
       <c r="E3" t="n">
-        <v>0.637062069010266</v>
+        <v>0.637062078057288</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.288147172724419</v>
+        <v>-0.28814717375245</v>
       </c>
       <c r="G3" t="n">
-        <v>0.176335112745012</v>
+        <v>0.176335115794876</v>
       </c>
     </row>
     <row r="4">
@@ -513,22 +513,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0929340563745889</v>
+        <v>0.0929340555537364</v>
       </c>
       <c r="C4" t="n">
-        <v>0.118164556880102</v>
+        <v>0.118164558308309</v>
       </c>
       <c r="D4" t="n">
-        <v>0.786479963436805</v>
+        <v>0.786479946984253</v>
       </c>
       <c r="E4" t="n">
-        <v>0.431586352999366</v>
+        <v>0.431586362634477</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.138664219359546</v>
+        <v>-0.138664222979632</v>
       </c>
       <c r="G4" t="n">
-        <v>0.324532332108724</v>
+        <v>0.324532334087105</v>
       </c>
     </row>
     <row r="5">
@@ -536,22 +536,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0529286294238058</v>
+        <v>-0.052928628466728</v>
       </c>
       <c r="C5" t="n">
-        <v>0.112181970383231</v>
+        <v>0.112181971368126</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.471810481158364</v>
+        <v>-0.471810468484656</v>
       </c>
       <c r="E5" t="n">
-        <v>0.637062069010266</v>
+        <v>0.637062078057288</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.272801251089678</v>
+        <v>-0.272801252062959</v>
       </c>
       <c r="G5" t="n">
-        <v>0.166943992242067</v>
+        <v>0.166943995129503</v>
       </c>
     </row>
     <row r="6">
@@ -559,22 +559,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0976328828944754</v>
+        <v>0.0976328820321199</v>
       </c>
       <c r="C6" t="n">
-        <v>0.12413905939553</v>
+        <v>0.124139060895948</v>
       </c>
       <c r="D6" t="n">
-        <v>0.786479963436805</v>
+        <v>0.786479946984253</v>
       </c>
       <c r="E6" t="n">
-        <v>0.431586352999366</v>
+        <v>0.431586362634477</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.145675202595441</v>
+        <v>-0.145675206398562</v>
       </c>
       <c r="G6" t="n">
-        <v>0.340940968384392</v>
+        <v>0.340940970462802</v>
       </c>
     </row>
     <row r="7">
@@ -585,19 +585,19 @@
         <v>-0.130477973048238</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111389155541269</v>
+        <v>0.111389155963288</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.17137051999552</v>
+        <v>-1.17137051555756</v>
       </c>
       <c r="E7" t="n">
-        <v>0.241449876605848</v>
+        <v>0.241449878388938</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.348796706177456</v>
+        <v>-0.348796707004597</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0878407600809799</v>
+        <v>0.0878407609081207</v>
       </c>
     </row>
     <row r="8">
@@ -608,19 +608,19 @@
         <v>-0.00795313689172122</v>
       </c>
       <c r="C8" t="n">
-        <v>0.123261741156068</v>
+        <v>0.123261742030713</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0645223474626354</v>
+        <v>-0.0645223470047954</v>
       </c>
       <c r="E8" t="n">
-        <v>0.948554313482187</v>
+        <v>0.94855431384673</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.249541710229312</v>
+        <v>-0.249541711943585</v>
       </c>
       <c r="G8" t="n">
-        <v>0.23363543644587</v>
+        <v>0.233635438160143</v>
       </c>
     </row>
     <row r="9">
@@ -628,22 +628,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.915294466909562</v>
+        <v>0.915294476734722</v>
       </c>
       <c r="C9" t="n">
-        <v>0.158694517096174</v>
+        <v>0.158694518812323</v>
       </c>
       <c r="D9" t="n">
-        <v>5.76765022294289</v>
+        <v>5.76765022248297</v>
       </c>
       <c r="E9" t="n">
         <v>0.00000000803844235619522</v>
       </c>
       <c r="F9" t="n">
-        <v>0.604258928857085</v>
+        <v>0.604258935318655</v>
       </c>
       <c r="G9" t="n">
-        <v>1.22633000496204</v>
+        <v>1.22633001815079</v>
       </c>
     </row>
     <row r="10">
@@ -654,19 +654,19 @@
         <v>-0.122524836156517</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0426386922310673</v>
+        <v>0.0426386926165386</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.87355989936397</v>
+        <v>-2.8735598733858</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00405874104882886</v>
+        <v>0.00405874138263052</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.206095137277297</v>
+        <v>-0.206095138032807</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0389545350357374</v>
+        <v>-0.0389545342802274</v>
       </c>
     </row>
     <row r="11">
@@ -674,22 +674,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.150561512318281</v>
+        <v>-0.150561510498848</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0429421740904851</v>
+        <v>0.042942174693014</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.50614554356348</v>
+        <v>-3.50614545199877</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000454646540090087</v>
+        <v>0.000454646696500305</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.234726626953481</v>
+        <v>-0.234726626314983</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0663963976830814</v>
+        <v>-0.0663963946827131</v>
       </c>
     </row>
     <row r="12">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.148840086364292</v>
+        <v>-0.148840084532523</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0413567741026244</v>
+        <v>0.0413567745787085</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.59892882348498</v>
+        <v>-3.59892873776355</v>
       </c>
       <c r="E12" t="n">
-        <v>0.000319530620858544</v>
+        <v>0.000319530726170081</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.229897874122195</v>
+        <v>-0.229897873223534</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0677822986063895</v>
+        <v>-0.0677822958415129</v>
       </c>
     </row>
     <row r="13">
@@ -720,22 +720,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.150923025487469</v>
+        <v>-0.150923023657048</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0434399962587076</v>
+        <v>0.0434399968655693</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.47428725796026</v>
+        <v>-3.4742871672873</v>
       </c>
       <c r="E13" t="n">
-        <v>0.000512212358031006</v>
+        <v>0.000512212531134093</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.236063853643091</v>
+        <v>-0.236063853002096</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0657821973318475</v>
+        <v>-0.0657821943119992</v>
       </c>
     </row>
     <row r="14">
@@ -743,22 +743,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.149167384424697</v>
+        <v>-0.149167382582607</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0416015966107645</v>
+        <v>0.0416015970903129</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.58561681707427</v>
+        <v>-3.58561673146297</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000336282428662127</v>
+        <v>0.000336282538990096</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.230705015481159</v>
+        <v>-0.230705014578967</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0676297533682351</v>
+        <v>-0.0676297505862478</v>
       </c>
     </row>
     <row r="15">
@@ -766,22 +766,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.813785902319474</v>
+        <v>-0.813785912153522</v>
       </c>
       <c r="C15" t="n">
-        <v>0.366159359456244</v>
+        <v>0.366159369703455</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.22249105834128</v>
+        <v>-2.2224910230007</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0262501376509019</v>
+        <v>0.0262501400366375</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.53144505945597</v>
+        <v>-1.53144508937418</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0961267451829809</v>
+        <v>-0.0961267349328645</v>
       </c>
     </row>
     <row r="16">
@@ -789,22 +789,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0447042534706697</v>
+        <v>0.044704253565392</v>
       </c>
       <c r="C16" t="n">
-        <v>0.23269415716284</v>
+        <v>0.232694159602188</v>
       </c>
       <c r="D16" t="n">
-        <v>0.192115925967946</v>
+        <v>0.19211592436105</v>
       </c>
       <c r="E16" t="n">
-        <v>0.847651400157504</v>
+        <v>0.847651401416177</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4113679139814</v>
+        <v>-0.411367918667712</v>
       </c>
       <c r="G16" t="n">
-        <v>0.500776420922739</v>
+        <v>0.500776425798496</v>
       </c>
     </row>
     <row r="17">
@@ -812,22 +812,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0223521267353348</v>
+        <v>0.022352126782696</v>
       </c>
       <c r="C17" t="n">
-        <v>0.11634707858142</v>
+        <v>0.116347079801094</v>
       </c>
       <c r="D17" t="n">
-        <v>0.192115925967946</v>
+        <v>0.19211592436105</v>
       </c>
       <c r="E17" t="n">
-        <v>0.847651400157504</v>
+        <v>0.847651401416177</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2056839569907</v>
+        <v>-0.205683959333856</v>
       </c>
       <c r="G17" t="n">
-        <v>0.25038821046137</v>
+        <v>0.250388212899248</v>
       </c>
     </row>
     <row r="18">
@@ -835,22 +835,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128209385582946</v>
+        <v>0.128209383716152</v>
       </c>
       <c r="C18" t="n">
-        <v>0.112048924231811</v>
+        <v>0.112048925052937</v>
       </c>
       <c r="D18" t="n">
-        <v>1.14422683182305</v>
+        <v>1.1442268067773</v>
       </c>
       <c r="E18" t="n">
-        <v>0.252529578232191</v>
+        <v>0.252529588616391</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.09140247041786</v>
+        <v>-0.0914024738940331</v>
       </c>
       <c r="G18" t="n">
-        <v>0.347821241583753</v>
+        <v>0.347821241326337</v>
       </c>
     </row>
     <row r="19">
@@ -858,22 +858,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0447042534706697</v>
+        <v>-0.044704253565392</v>
       </c>
       <c r="C19" t="n">
-        <v>0.23269415716284</v>
+        <v>0.232694159602188</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.192115925967946</v>
+        <v>-0.19211592436105</v>
       </c>
       <c r="E19" t="n">
-        <v>0.847651400157504</v>
+        <v>0.847651401416177</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.500776420922739</v>
+        <v>-0.500776425798496</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4113679139814</v>
+        <v>0.411367918667712</v>
       </c>
     </row>
     <row r="20">
@@ -881,22 +881,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>0.150561512318281</v>
+        <v>0.150561510498848</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0429421740904851</v>
+        <v>0.042942174693014</v>
       </c>
       <c r="D20" t="n">
-        <v>3.50614554356348</v>
+        <v>3.50614545199877</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00022732327004508</v>
+        <v>0.000227323348250149</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0663963976830814</v>
+        <v>0.0663963946827131</v>
       </c>
       <c r="G20" t="n">
-        <v>0.234726626953481</v>
+        <v>0.234726626314983</v>
       </c>
     </row>
     <row r="21">
@@ -904,22 +904,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0447042534706697</v>
+        <v>0.044704253565392</v>
       </c>
       <c r="C21" t="n">
-        <v>0.23269415716284</v>
+        <v>0.232694159602188</v>
       </c>
       <c r="D21" t="n">
-        <v>0.192115925967946</v>
+        <v>0.19211592436105</v>
       </c>
       <c r="E21" t="n">
-        <v>0.423825700078752</v>
+        <v>0.423825700708089</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4113679139814</v>
+        <v>-0.411367918667712</v>
       </c>
       <c r="G21" t="n">
-        <v>0.500776420922739</v>
+        <v>0.500776425798496</v>
       </c>
     </row>
     <row r="22">
@@ -927,22 +927,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>0.105857258847612</v>
+        <v>0.105857256933456</v>
       </c>
       <c r="C22" t="n">
-        <v>0.224363940766463</v>
+        <v>0.224363942736253</v>
       </c>
       <c r="D22" t="n">
-        <v>0.471810481158364</v>
+        <v>0.471810468484656</v>
       </c>
       <c r="E22" t="n">
-        <v>0.318531034505133</v>
+        <v>0.318531039028644</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.333887984484134</v>
+        <v>-0.333887990259006</v>
       </c>
       <c r="G22" t="n">
-        <v>0.545602502179357</v>
+        <v>0.545602504125918</v>
       </c>
     </row>
     <row r="23">
@@ -950,16 +950,16 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>0.149167384424697</v>
+        <v>0.149167382582607</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0416015966107645</v>
+        <v>0.0416015970903129</v>
       </c>
       <c r="D23" t="n">
-        <v>3.58561681707427</v>
+        <v>3.58561673146297</v>
       </c>
       <c r="E23" t="n">
-        <v>0.999831858785669</v>
+        <v>0.999831858730505</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -969,16 +969,16 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>0.150923025487469</v>
+        <v>0.150923023657048</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0434399962587076</v>
+        <v>0.0434399968655693</v>
       </c>
       <c r="D24" t="n">
-        <v>3.47428725796026</v>
+        <v>3.4742871672873</v>
       </c>
       <c r="E24" t="n">
-        <v>0.999743893820984</v>
+        <v>0.999743893734433</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -988,16 +988,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.813785902319474</v>
+        <v>0.813785912153522</v>
       </c>
       <c r="C25" t="n">
-        <v>0.366159359456244</v>
+        <v>0.366159369703455</v>
       </c>
       <c r="D25" t="n">
-        <v>2.22249105834128</v>
+        <v>2.2224910230007</v>
       </c>
       <c r="E25" t="n">
-        <v>0.986874931174549</v>
+        <v>0.986874929981681</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -1007,16 +1007,16 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.813785902319474</v>
+        <v>0.813785912153522</v>
       </c>
       <c r="C26" t="n">
-        <v>0.366159359456244</v>
+        <v>0.366159369703455</v>
       </c>
       <c r="D26" t="n">
-        <v>2.22249105834128</v>
+        <v>2.2224910230007</v>
       </c>
       <c r="E26" t="n">
-        <v>0.013125068825451</v>
+        <v>0.0131250700183188</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
